--- a/docs/PTA3_ADDC_30_2/PTA3_ADDC_30_2_31.07.24_output.xlsx
+++ b/docs/PTA3_ADDC_30_2/PTA3_ADDC_30_2_31.07.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731700254.5407865</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731700257.7841</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/CNY1731700254.5407865.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/CNY1731700257.7841.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I3" t="n">
+      <c r="K3" t="n">
         <v>11.971</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>11.956</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.01500000000000057</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -591,44 +613,50 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731700259.340475</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>./test_images/CNY1731700259.340475.png</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
+          <t>./test_images/CNY1731700259.340475.png</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>11.936</v>
       </c>
-      <c r="J4" t="n">
-        <v>11.936</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>11.859</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-0.07699999999999996</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-0.65</v>
       </c>
     </row>
   </sheetData>
@@ -689,19 +717,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.01500000000000057</v>
+        <v>-0.06199999999999939</v>
       </c>
       <c r="C2" t="n">
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.007500000000000284</v>
+        <v>-0.03099999999999969</v>
       </c>
       <c r="E2" t="n">
-        <v>0.13</v>
+        <v>-0.52</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06</v>
+        <v>-0.26</v>
       </c>
     </row>
     <row r="3">
